--- a/results/data/Unique_Refactorings.xlsx
+++ b/results/data/Unique_Refactorings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -27,10 +27,38 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Sheet1</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Sheet1</t>
+    </r>
+  </si>
+  <si>
+    <t>Sheet 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Sheet 1</t>
+    </r>
   </si>
   <si>
     <t>Refactoring Types</t>
@@ -42,6 +70,9 @@
     <t>RefAgent-Starcoder</t>
   </si>
   <si>
+    <t>RefAgent-deepseek-coder</t>
+  </si>
+  <si>
     <t>Invert Condition</t>
   </si>
   <si>
@@ -51,6 +82,9 @@
     <t>{0, 13, 20, 32, 40}</t>
   </si>
   <si>
+    <t>{2, 7, 16, 35, 57}</t>
+  </si>
+  <si>
     <t>Parameterize Variable</t>
   </si>
   <si>
@@ -60,6 +94,9 @@
     <t>{0, 4, 15, 43, 59}</t>
   </si>
   <si>
+    <t>{3, 14, 50, 57, 76}</t>
+  </si>
+  <si>
     <t>Merge Conditional</t>
   </si>
   <si>
@@ -69,6 +106,9 @@
     <t>{0, 8, 15, 33, 47}</t>
   </si>
   <si>
+    <t>{0, 15, 29, 54, 65}</t>
+  </si>
+  <si>
     <t>Extract Method</t>
   </si>
   <si>
@@ -78,6 +118,9 @@
     <t>{0, 150, 230, 300, 360}</t>
   </si>
   <si>
+    <t>{0, 17, 298, 377, 720}</t>
+  </si>
+  <si>
     <t>Merge Catch</t>
   </si>
   <si>
@@ -87,6 +130,9 @@
     <t>{0, 3, 4, 8, 10}</t>
   </si>
   <si>
+    <t>{96, 120, 184, 275, 320}</t>
+  </si>
+  <si>
     <t>Replace Conditional With Ternary</t>
   </si>
   <si>
@@ -96,6 +142,9 @@
     <t>{0, 18, 55, 69, 84}</t>
   </si>
   <si>
+    <t>{0, 3, 16, 43, 50}</t>
+  </si>
+  <si>
     <t>Remove Variable Modifier</t>
   </si>
   <si>
@@ -105,6 +154,9 @@
     <t>{0, 3, 4, 6, 9}</t>
   </si>
   <si>
+    <t>{0, 14, 52, 92, 98}</t>
+  </si>
+  <si>
     <t>Change Return Type</t>
   </si>
   <si>
@@ -114,6 +166,9 @@
     <t>{0, 20, 34, 59, 164}</t>
   </si>
   <si>
+    <t>{0, 17, 28, 58, 108}</t>
+  </si>
+  <si>
     <t>Change Attribute Type</t>
   </si>
   <si>
@@ -123,6 +178,9 @@
     <t>{0, 10, 24, 69, 124}</t>
   </si>
   <si>
+    <t>{0, 20, 23, 35, 67}</t>
+  </si>
+  <si>
     <t>Change Variable Type</t>
   </si>
   <si>
@@ -132,12 +190,18 @@
     <t>{0, 20, 54, 89, 224}</t>
   </si>
   <si>
+    <t>{0, 10, 15, 34, 59}</t>
+  </si>
+  <si>
     <t>Remove Parameter Modifier</t>
   </si>
   <si>
     <t>{102, 103, 114, 149, 254}</t>
   </si>
   <si>
+    <t>{102, 103, 13, 149, 234}</t>
+  </si>
+  <si>
     <t>Rename Method</t>
   </si>
   <si>
@@ -147,6 +211,9 @@
     <t>{5, 25, 53, 78, 97}</t>
   </si>
   <si>
+    <t>{12, 19, 20, 32, 56}</t>
+  </si>
+  <si>
     <t>Move Attribute</t>
   </si>
   <si>
@@ -156,12 +223,18 @@
     <t>{0, 3, 9, 18, 22}</t>
   </si>
   <si>
+    <t>14, 26, 33, 101, 167}</t>
+  </si>
+  <si>
     <t>Change Parameter Type</t>
   </si>
   <si>
     <t>{0, 33, 40, 78, 90}</t>
   </si>
   <si>
+    <t>{8, 33, 36, 73, 86}</t>
+  </si>
+  <si>
     <t>Replace Anonymous With Lambda</t>
   </si>
   <si>
@@ -171,30 +244,45 @@
     <t>{0, 3, 4, 8, 12}</t>
   </si>
   <si>
+    <t>{0, 2, 4, 9, 21}</t>
+  </si>
+  <si>
     <t>Add Attribute Modifier</t>
   </si>
   <si>
     <t>{20, 33, 40, 48, 55}</t>
   </si>
   <si>
+    <t>{20, 27, 39, 43, 59}</t>
+  </si>
+  <si>
     <t>Change Method Access Modifier</t>
   </si>
   <si>
     <t>{0, 40, 120, 210, 400}</t>
   </si>
   <si>
+    <t>{2, 57, 134, 221, 410}</t>
+  </si>
+  <si>
     <t>Replace Variable</t>
   </si>
   <si>
     <t>{0, 33, 49, 68, 90}</t>
   </si>
   <si>
+    <t>{0, 3, 6, 8, 14}</t>
+  </si>
+  <si>
     <t>Rename Parameter</t>
   </si>
   <si>
     <t>{100, 100, 110, 180, 200}</t>
   </si>
   <si>
+    <t>{87, 90, 110, 176, 196}</t>
+  </si>
+  <si>
     <t>Rename Attribute</t>
   </si>
   <si>
@@ -204,7 +292,10 @@
     <t>{0, 30, 44, 100, 144}</t>
   </si>
   <si>
-    <t>Sheet 1</t>
+    <t>{58, 245, 378, 493, 755}</t>
+  </si>
+  <si>
+    <t>RefAgent-Deepseek-coder</t>
   </si>
   <si>
     <t>{8, 15, 30, 58,64}</t>
@@ -219,25 +310,55 @@
     <t>{230, 320, 367,464, 580}</t>
   </si>
   <si>
+    <t>{330, 330, 335, 582, 595}</t>
+  </si>
+  <si>
+    <t>{7, 20, 30, 58, 76}</t>
+  </si>
+  <si>
     <t>{89, 112, 120, 187, 273}</t>
   </si>
   <si>
+    <t>{93, 134, 179, 275, 298}</t>
+  </si>
+  <si>
+    <t>{0, 3, 21, 34, 65}</t>
+  </si>
+  <si>
+    <t>{9, 23, 45, 88, 106}</t>
+  </si>
+  <si>
+    <t>{8, 23, 29, 67, 105}</t>
+  </si>
+  <si>
+    <t>{6, 16, 23, 35, 69}</t>
+  </si>
+  <si>
     <t>{40, 120, 210, 323, 409}</t>
   </si>
   <si>
     <t>{31, 140,202,308, 340}</t>
   </si>
   <si>
+    <t>{45, 130, 220, 323, 402}</t>
+  </si>
+  <si>
     <t>{24, 26, 34, 95, 154}</t>
   </si>
   <si>
     <t>{20, 23, 79, 88, 122}</t>
   </si>
   <si>
+    <t>{26, 28, 56, 95, 145}</t>
+  </si>
+  <si>
     <t>{54, 250, 390,429, 500}</t>
   </si>
   <si>
     <t>{30, 44, 100, 144,278}</t>
+  </si>
+  <si>
+    <t>{66, 243, 387, 422, 477}</t>
   </si>
 </sst>
 </file>
@@ -247,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -285,6 +406,11 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -307,13 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -324,12 +450,99 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -352,43 +565,67 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -397,10 +634,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -409,13 +646,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -424,7 +661,18 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
@@ -433,7 +681,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,43 +690,43 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
         <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,28 +735,26 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="12"/>
       </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +764,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -540,49 +786,121 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -605,10 +923,10 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -761,9 +1079,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -843,7 +1161,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -870,10 +1188,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1120,9 +1438,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1400,7 +1718,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1427,10 +1745,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1672,353 +1990,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
-    <hyperlink ref="D12" location="'Sheet 1'!R2C1" tooltip="" display="Sheet 1"/>
+    <hyperlink ref="D12" location="'Sheet 1'!R1C1" tooltip="" display="Sheet 1"/>
+    <hyperlink ref="D12" location="'Sheet1'!R1C1" tooltip="" display="Sheet1"/>
+    <hyperlink ref="D14" location="'Sheet 1'!R1C1" tooltip="" display="Sheet 1"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.1641" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.3281" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="25" customWidth="1"/>
+    <col min="2" max="2" width="19.1719" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.8516" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22.3516" style="25" customWidth="1"/>
+    <col min="5" max="5" width="25.4141" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s" s="9">
-        <v>8</v>
+      <c r="A1" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" t="s" s="28">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s" s="28">
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>11</v>
+      <c r="A2" t="s" s="29">
+        <v>14</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="28">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s" s="28">
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>14</v>
+      <c r="A3" t="s" s="28">
+        <v>18</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" t="s" s="28">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="28">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="28">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="9">
-        <v>17</v>
+      <c r="A4" t="s" s="28">
+        <v>22</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" t="s" s="28">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="28">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>20</v>
+      <c r="A5" t="s" s="28">
+        <v>26</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="28">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s" s="28">
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>23</v>
+      <c r="A6" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" t="s" s="28">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="28">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s" s="28">
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>26</v>
+      <c r="A7" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" t="s" s="28">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="28">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="28">
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>29</v>
+      <c r="A8" t="s" s="28">
+        <v>38</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" t="s" s="28">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="28">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s" s="28">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s" s="9">
+      <c r="A9" t="s" s="28">
+        <v>42</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" t="s" s="28">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s" s="28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="28">
+        <v>46</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" t="s" s="28">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s" s="28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s" s="28">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="28">
+        <v>54</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" t="s" s="28">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s" s="28">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>23</v>
+      <c r="E12" t="s" s="28">
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>43</v>
+      <c r="A13" t="s" s="28">
+        <v>57</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" t="s" s="28">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s" s="28">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s" s="28">
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>46</v>
+      <c r="A14" t="s" s="28">
+        <v>61</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" t="s" s="28">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s" s="28">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s" s="28">
+        <v>64</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" t="s" s="9">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>48</v>
+      <c r="A15" t="s" s="28">
+        <v>65</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" t="s" s="28">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s" s="28">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s" s="28">
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" t="s" s="9">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>51</v>
+      <c r="A16" t="s" s="28">
+        <v>68</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" t="s" s="28">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s" s="28">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s" s="28">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>52</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>51</v>
+      <c r="A17" t="s" s="28">
+        <v>72</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" t="s" s="28">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s" s="28">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s" s="28">
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s" s="9">
-        <v>23</v>
+      <c r="A18" t="s" s="28">
+        <v>75</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" t="s" s="28">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s" s="28">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s" s="28">
+        <v>77</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>56</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s" s="9">
-        <v>57</v>
+      <c r="A19" t="s" s="28">
+        <v>78</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" t="s" s="28">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s" s="28">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s" s="28">
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>58</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s" s="9">
-        <v>48</v>
+      <c r="A20" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" t="s" s="28">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="28">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s" s="28">
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>23</v>
+      <c r="A21" t="s" s="28">
+        <v>75</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" t="s" s="28">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s" s="28">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s" s="28">
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>60</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>62</v>
+      <c r="A22" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s" s="28">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s" s="28">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2035,168 +2509,223 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.4297" style="12" customWidth="1"/>
-    <col min="2" max="3" width="16.3516" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.5859" style="31" customWidth="1"/>
+    <col min="3" max="3" width="32.6328" style="31" customWidth="1"/>
+    <col min="4" max="4" width="37.3516" style="31" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="13">
+      <c r="A1" t="s" s="32">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="15">
-        <v>8</v>
-      </c>
+      <c r="A2" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="36">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="37">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="36">
+        <v>88</v>
+      </c>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" ht="13.2" customHeight="1">
-      <c r="A3" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="17">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s" s="18">
-        <v>65</v>
-      </c>
+      <c r="A3" t="s" s="39">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="40">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s" s="41">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s" s="40">
+        <v>89</v>
+      </c>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" ht="12.9" customHeight="1">
-      <c r="A4" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="20">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="21">
-        <v>14</v>
-      </c>
+      <c r="A4" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="43">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="43">
+        <v>19</v>
+      </c>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" ht="12.9" customHeight="1">
-      <c r="A5" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="20">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s" s="21">
-        <v>67</v>
-      </c>
+      <c r="A5" t="s" s="42">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="43">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s" s="44">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s" s="43">
+        <v>93</v>
+      </c>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" ht="12.9" customHeight="1">
-      <c r="A6" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="21">
-        <v>17</v>
-      </c>
+      <c r="A6" t="s" s="42">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="43">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="44">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="43">
+        <v>94</v>
+      </c>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" ht="12.9" customHeight="1">
-      <c r="A7" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="21">
-        <v>68</v>
-      </c>
+      <c r="A7" t="s" s="42">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="43">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="44">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s" s="43">
+        <v>96</v>
+      </c>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" ht="12.9" customHeight="1">
-      <c r="A8" t="s" s="19">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s" s="21">
-        <v>26</v>
-      </c>
+      <c r="A8" t="s" s="42">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="43">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="44">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="43">
+        <v>97</v>
+      </c>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" ht="12.9" customHeight="1">
-      <c r="A9" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="21">
-        <v>29</v>
-      </c>
+      <c r="A9" t="s" s="42">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="44">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s" s="43">
+        <v>98</v>
+      </c>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" ht="12.9" customHeight="1">
-      <c r="A10" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s" s="21">
-        <v>32</v>
-      </c>
+      <c r="A10" t="s" s="42">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="43">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="44">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s" s="43">
+        <v>99</v>
+      </c>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" ht="12.9" customHeight="1">
-      <c r="A11" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s" s="20">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s" s="21">
-        <v>35</v>
-      </c>
+      <c r="A11" t="s" s="42">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="43">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="44">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s" s="43">
+        <v>100</v>
+      </c>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" ht="12.9" customHeight="1">
-      <c r="A12" t="s" s="19">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s" s="20">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s" s="21">
-        <v>70</v>
-      </c>
+      <c r="A12" t="s" s="42">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s" s="43">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s" s="44">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s" s="43">
+        <v>103</v>
+      </c>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" ht="12.9" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s" s="20">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s" s="21">
-        <v>72</v>
-      </c>
+      <c r="A13" t="s" s="42">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s" s="43">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s" s="43">
+        <v>106</v>
+      </c>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" ht="12.9" customHeight="1">
-      <c r="A14" t="s" s="19">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s" s="20">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s" s="21">
-        <v>74</v>
-      </c>
+      <c r="A14" t="s" s="42">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s" s="44">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s" s="43">
+        <v>109</v>
+      </c>
+      <c r="E14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
